--- a/statistik/uploads/Elevark_.xlsx
+++ b/statistik/uploads/Elevark_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viborgskoler15-my.sharepoint.com/personal/alek1024_viborgskoler_dk/Documents/2020-2021 Lærermappe/Matematik Projekter/Statestik/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viborgskoler15-my.sharepoint.com/personal/alek1024_viborgskoler_dk/Documents/Dokumenter/GitHub/AleksHolland84.github.io/statistik/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{501F0DB2-661A-48E7-A4F2-7BA708F37A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D6D239D-D789-4103-A207-97E57A7AC5D9}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{501F0DB2-661A-48E7-A4F2-7BA708F37A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F99E2E31-29BA-4A86-B939-61D6E768EC0F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{404C35AA-3201-4777-8B90-B73A768979D5}"/>
+    <workbookView xWindow="38490" yWindow="2070" windowWidth="18570" windowHeight="14790" xr2:uid="{404C35AA-3201-4777-8B90-B73A768979D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Elev" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Elev nummer:</t>
   </si>
@@ -99,12 +99,6 @@
     <t>TikTok</t>
   </si>
   <si>
-    <t>BeReal</t>
-  </si>
-  <si>
-    <t>Spotify</t>
-  </si>
-  <si>
     <t>Youtube</t>
   </si>
   <si>
@@ -120,10 +114,10 @@
     <t>App 3</t>
   </si>
   <si>
-    <t>App 4</t>
-  </si>
-  <si>
-    <t>App 5</t>
+    <t>Messenger</t>
+  </si>
+  <si>
+    <t>Aula</t>
   </si>
 </sst>
 </file>
@@ -134,7 +128,7 @@
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -587,6 +581,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,100 +843,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>50116</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>370072</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>352629</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Billede 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE4A546-2AF7-4EF8-B7F2-06998ACD4FEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2231341" y="4846865"/>
-          <a:ext cx="319956" cy="325414"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>41018</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>34411</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>363681</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>357074</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Grafik 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC98A41A-462D-4DF0-8DB3-BA834CA1D637}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2222243" y="5235061"/>
-          <a:ext cx="322663" cy="322663"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>47953</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>35065</xdr:rowOff>
@@ -963,10 +867,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -986,13 +890,106 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>367581</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>367581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Billede 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9F37F5-ED8E-4597-989E-E4D1FF93A791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="4229100"/>
+          <a:ext cx="319956" cy="319956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53069</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>375557</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>361307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Billede 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC9476A-2E45-4361-D824-162A9CF5F74D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="368755" y="4611032"/>
+          <a:ext cx="322488" cy="316832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 Tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1030,7 +1027,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1136,7 +1133,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1278,7 +1275,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1288,18 +1285,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD30D13A-21C1-40F3-B757-99A1D5E0FE11}">
   <dimension ref="B1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:20">
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +1304,7 @@
       <c r="E2" s="32"/>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C3" s="28" t="s">
         <v>1</v>
       </c>
@@ -1315,7 +1312,7 @@
       <c r="E3" s="34"/>
       <c r="F3" s="35"/>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C4" s="28" t="s">
         <v>2</v>
       </c>
@@ -1323,7 +1320,7 @@
       <c r="E4" s="34"/>
       <c r="F4" s="35"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
         <v>3</v>
       </c>
@@ -1331,7 +1328,7 @@
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
     </row>
-    <row r="6" spans="2:20" ht="15.75" thickBot="1">
+    <row r="6" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="30" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1336,7 @@
       <c r="E6" s="37"/>
       <c r="F6" s="38"/>
     </row>
-    <row r="8" spans="2:20" ht="21">
+    <row r="8" spans="2:20" ht="21" x14ac:dyDescent="0.35">
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1348,7 +1345,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="2:20" ht="21.75" thickBot="1">
+    <row r="9" spans="2:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="36" t="s">
         <v>5</v>
       </c>
@@ -1361,7 +1358,7 @@
       <c r="J9" s="36"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="2:20" ht="30" customHeight="1">
+    <row r="10" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1393,7 +1390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="30" customHeight="1">
+    <row r="11" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1407,7 +1404,7 @@
       <c r="J11" s="21"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="2:20" ht="30" customHeight="1">
+    <row r="12" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1421,7 +1418,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="2:20" ht="30" customHeight="1">
+    <row r="13" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1435,7 +1432,7 @@
       <c r="J13" s="21"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="2:20" ht="30" customHeight="1">
+    <row r="14" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>19</v>
       </c>
@@ -1449,7 +1446,7 @@
       <c r="J14" s="21"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="2:20" ht="30" customHeight="1">
+    <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>20</v>
       </c>
@@ -1463,9 +1460,9 @@
       <c r="J15" s="21"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="2:20" ht="30" customHeight="1">
+    <row r="16" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1477,9 +1474,9 @@
       <c r="J16" s="21"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="2:11" ht="30" customHeight="1">
+    <row r="17" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1491,9 +1488,9 @@
       <c r="J17" s="21"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="2:11" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -1505,10 +1502,10 @@
       <c r="J18" s="22"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="20" spans="2:11" ht="21.75" thickBot="1">
+    <row r="20" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="24"/>
       <c r="D20" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
@@ -1518,7 +1515,7 @@
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
     </row>
-    <row r="21" spans="2:11" ht="30" customHeight="1">
+    <row r="21" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
       <c r="E21" s="4" t="s">
         <v>7</v>
@@ -1542,10 +1539,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="30" customHeight="1">
+    <row r="22" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="23"/>
       <c r="D22" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -1555,10 +1552,10 @@
       <c r="J22" s="13"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="2:11" ht="30" customHeight="1">
+    <row r="23" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="23"/>
       <c r="D23" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -1568,44 +1565,42 @@
       <c r="J23" s="13"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="2:11" ht="30" customHeight="1">
+    <row r="24" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="23"/>
-      <c r="D24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="2:11" ht="30" customHeight="1">
+      <c r="D24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="23"/>
-      <c r="D25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="2:11" ht="30" customHeight="1" thickBot="1">
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+    </row>
+    <row r="26" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="23"/>
-      <c r="D26" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="17"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="12">
